--- a/inst/extdata/toyFiles/FROC/frocSp.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocSp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1880654A-12BF-8D44-92AA-9A38452EC324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A1BC2-0713-374B-BB41-4E056ADBC7C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="460" windowWidth="10000" windowHeight="15120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18740" yWindow="1140" windowWidth="10000" windowHeight="10160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -632,18 +632,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -659,12 +659,12 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>0.36567359975126756</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-9.2080475864706579E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -680,16 +680,16 @@
       <c r="E2" s="1">
         <v>5.28</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G9" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.17</v>
-      </c>
       <c r="J2">
-        <f t="shared" ref="J2:J34" ca="1" si="1">RAND()-0.5</f>
-        <v>-7.3370540569986487E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J2:J9" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
+        <v>5.33</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M34" ca="1" si="1">RAND()-0.5</f>
+        <v>-0.2316838846973025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -705,16 +705,16 @@
       <c r="E3" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.43</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.8402570633461548E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.8</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.31832445652857244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -730,16 +730,16 @@
       <c r="E4" s="1">
         <v>3.01</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.11</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37039883783188032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2.98</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.34700752744393804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -755,16 +755,16 @@
       <c r="E5" s="1">
         <v>5.98</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17953839169057806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.76</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.24276787157198387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -780,12 +780,12 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -801,16 +801,16 @@
       <c r="E7" s="1">
         <v>5.25</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43054280719720517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.44</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39354732552446148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -826,16 +826,16 @@
       <c r="E8" s="1">
         <v>4.26</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.2661047163593877E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.16443331727978183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -851,16 +851,16 @@
       <c r="E9" s="1">
         <v>5.14</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.29</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37127887198430998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.22</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12083636382396734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -876,16 +876,16 @@
       <c r="E10" s="1">
         <v>3.31</v>
       </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G33" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E10, 2)</f>
-        <v>3.32</v>
-      </c>
       <c r="J10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28208193685131189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J10:J33" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E10, 2)</f>
+        <v>3.3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.39394772180939319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -901,16 +901,16 @@
       <c r="E11" s="1">
         <v>4.92</v>
       </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.1100000000000003</v>
-      </c>
       <c r="J11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.1955303336928198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.03</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17462288280979232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -926,16 +926,16 @@
       <c r="E12" s="1">
         <v>5.1100000000000003</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.18</v>
-      </c>
       <c r="J12">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.28060381126184497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.34</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14194838642585705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -951,16 +951,16 @@
       <c r="E13" s="1">
         <v>4.63</v>
       </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.53</v>
-      </c>
       <c r="J13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.38829850148697165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35735971964265401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -976,16 +976,16 @@
       <c r="E14" s="1">
         <v>4.95</v>
       </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.82</v>
-      </c>
       <c r="J14">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.2491617116783185E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.46384838090051306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1001,16 +1001,16 @@
       <c r="E15" s="1">
         <v>5.3</v>
       </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.27</v>
-      </c>
       <c r="J15">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.3969167413330813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.43</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.21022219591353175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1026,16 +1026,16 @@
       <c r="E16" s="1">
         <v>4.66</v>
       </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.91</v>
-      </c>
       <c r="J16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20531291635822269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.43456140719335845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1051,16 +1051,16 @@
       <c r="E17" s="1">
         <v>4.03</v>
       </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.93</v>
-      </c>
       <c r="J17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12914113902972879</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.12096592243062798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1076,16 +1076,16 @@
       <c r="E18" s="1">
         <v>5.22</v>
       </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
       <c r="J18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43977762338685134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.09</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.6096000334214238E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1101,16 +1101,16 @@
       <c r="E19" s="1">
         <v>4.9400000000000004</v>
       </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.04</v>
-      </c>
       <c r="J19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14567203334424772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.35065126065786589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1126,16 +1126,16 @@
       <c r="E20" s="1">
         <v>5.27</v>
       </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.28</v>
-      </c>
       <c r="J20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36391831417356735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.23</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46714289448340729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1151,16 +1151,16 @@
       <c r="E21" s="1">
         <v>5.2</v>
       </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.41</v>
-      </c>
       <c r="J21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28471042978166572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.25</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.41816751017739917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1176,16 +1176,16 @@
       <c r="E22" s="1">
         <v>3.27</v>
       </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.21</v>
-      </c>
       <c r="J22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.26442562083937105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.12</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11508384083942713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1201,16 +1201,16 @@
       <c r="E23" s="1">
         <v>4.6100000000000003</v>
       </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.6100000000000003</v>
-      </c>
       <c r="J23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.29000546654888315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.57</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38567983572863973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1226,16 +1226,16 @@
       <c r="E24" s="1">
         <v>5.18</v>
       </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.38</v>
-      </c>
       <c r="J24">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.44185291236016333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.05</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.48015449462135917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1251,16 +1251,16 @@
       <c r="E25" s="1">
         <v>4.72</v>
       </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.63</v>
-      </c>
       <c r="J25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.33651223382949214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.74</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25337802297049195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1276,16 +1276,16 @@
       <c r="E26" s="1">
         <v>4.7699999999999996</v>
       </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.96</v>
-      </c>
       <c r="J26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.34787588975373351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32737356365590642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1301,16 +1301,16 @@
       <c r="E27" s="1">
         <v>3.19</v>
       </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.19</v>
-      </c>
       <c r="J27">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19324403858876138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.32</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.56409410411585E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1326,16 +1326,16 @@
       <c r="E28" s="1">
         <v>5.2</v>
       </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.24</v>
-      </c>
       <c r="J28">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.8721687489921774E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.45</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.37285444218488017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -1351,16 +1351,16 @@
       <c r="E29" s="1">
         <v>5.39</v>
       </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.37</v>
-      </c>
       <c r="J29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.39204174288345184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.42</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18443800212365824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1376,16 +1376,16 @@
       <c r="E30" s="1">
         <v>5.01</v>
       </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.8099999999999996</v>
-      </c>
       <c r="J30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.26360482872842361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.99</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33132347623082348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1401,16 +1401,16 @@
       <c r="E31" s="1">
         <v>4.87</v>
       </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.72</v>
-      </c>
       <c r="J31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.31878239011927467</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.76</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.32223286751680491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1426,16 +1426,16 @@
       <c r="E32" s="1">
         <v>1.94</v>
       </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.12</v>
-      </c>
       <c r="J32">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.7807452799282482E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.73</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.3946700538034652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -1451,25 +1451,25 @@
       <c r="E33" s="1">
         <v>4.78</v>
       </c>
-      <c r="G33">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.71</v>
-      </c>
       <c r="J33">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.20413327700091899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J34">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.4173057255812433E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J36">
-        <f ca="1">AVERAGE(J1:J34)</f>
-        <v>6.3336480108912557E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30765892467289546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.44736256592909729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <f ca="1">AVERAGE(M1:M34)</f>
+        <v>-4.8466200465126862E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1488,18 +1488,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1526,12 +1526,12 @@
       <c r="D2" s="1">
         <v>1.02</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1544,12 +1544,12 @@
       <c r="D3" s="1">
         <v>2.17</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F22" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J22" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1562,12 +1562,12 @@
       <c r="D4" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1580,12 +1580,12 @@
       <c r="D5" s="1">
         <v>1.9</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1598,12 +1598,12 @@
       <c r="D6" s="1">
         <v>2.21</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1616,12 +1616,12 @@
       <c r="D7" s="1">
         <v>3.1</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1634,12 +1634,12 @@
       <c r="D8" s="1">
         <v>2.21</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1652,12 +1652,12 @@
       <c r="D9" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1670,12 +1670,12 @@
       <c r="D10" s="1">
         <v>2.14</v>
       </c>
-      <c r="F10">
+      <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1688,12 +1688,12 @@
       <c r="D11" s="1">
         <v>1.98</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1706,12 +1706,12 @@
       <c r="D12" s="1">
         <v>1.95</v>
       </c>
-      <c r="F12">
+      <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1724,12 +1724,12 @@
       <c r="D13" s="1">
         <v>2.89</v>
       </c>
-      <c r="F13">
+      <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1742,12 +1742,12 @@
       <c r="D14" s="1">
         <v>2.89</v>
       </c>
-      <c r="F14">
+      <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1760,12 +1760,12 @@
       <c r="D15" s="1">
         <v>0.84</v>
       </c>
-      <c r="F15">
+      <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1778,12 +1778,12 @@
       <c r="D16" s="1">
         <v>1.85</v>
       </c>
-      <c r="F16">
+      <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1796,12 +1796,12 @@
       <c r="D17" s="1">
         <v>3.22</v>
       </c>
-      <c r="F17">
+      <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1814,12 +1814,12 @@
       <c r="D18" s="1">
         <v>3.01</v>
       </c>
-      <c r="F18">
+      <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1832,12 +1832,12 @@
       <c r="D19" s="1">
         <v>1.96</v>
       </c>
-      <c r="F19">
+      <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1850,12 +1850,12 @@
       <c r="D20" s="1">
         <v>2.08</v>
       </c>
-      <c r="F20">
+      <c r="J20">
         <f t="shared" ca="1" si="0"/>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1868,12 +1868,12 @@
       <c r="D21" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F21">
+      <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1886,12 +1886,12 @@
       <c r="D22" s="1">
         <v>4.01</v>
       </c>
-      <c r="F22">
+      <c r="J22">
         <f t="shared" ca="1" si="0"/>
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1904,12 +1904,12 @@
       <c r="D23" s="1">
         <v>1.65</v>
       </c>
-      <c r="F23">
+      <c r="J23">
         <f ca="1">ROUND(0.5*(RAND()-0.5)+D23, 2)</f>
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1922,12 +1922,12 @@
       <c r="D24" s="1">
         <v>1.93</v>
       </c>
-      <c r="F24">
-        <f t="shared" ref="F24:F48" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+D24, 2)</f>
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" ref="J24:J48" ca="1" si="1">ROUND(0.5*(RAND()-0.5)+D24, 2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1940,12 +1940,12 @@
       <c r="D25" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1958,12 +1958,12 @@
       <c r="D26" s="1">
         <v>1.96</v>
       </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1976,12 +1976,12 @@
       <c r="D27" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1994,12 +1994,12 @@
       <c r="D28" s="1">
         <v>1.91</v>
       </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2012,12 +2012,12 @@
       <c r="D29" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2030,12 +2030,12 @@
       <c r="D30" s="1">
         <v>1.94</v>
       </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -2048,12 +2048,12 @@
       <c r="D31" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -2066,12 +2066,12 @@
       <c r="D32" s="1">
         <v>1.72</v>
       </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2084,12 +2084,12 @@
       <c r="D33" s="1">
         <v>1.76</v>
       </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2102,12 +2102,12 @@
       <c r="D34" s="1">
         <v>1.84</v>
       </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2120,12 +2120,12 @@
       <c r="D35" s="1">
         <v>1.78</v>
       </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2138,12 +2138,12 @@
       <c r="D36" s="1">
         <v>2.1</v>
       </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2156,12 +2156,12 @@
       <c r="D37" s="1">
         <v>1.73</v>
       </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -2174,12 +2174,12 @@
       <c r="D38" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2192,12 +2192,12 @@
       <c r="D39" s="1">
         <v>1.67</v>
       </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -2210,12 +2210,12 @@
       <c r="D40" s="1">
         <v>1.64</v>
       </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -2228,12 +2228,12 @@
       <c r="D41" s="1">
         <v>1.89</v>
       </c>
-      <c r="F41">
+      <c r="J41">
         <f t="shared" ca="1" si="1"/>
         <v>1.71</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -2246,12 +2246,12 @@
       <c r="D42" s="1">
         <v>1.89</v>
       </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -2264,12 +2264,12 @@
       <c r="D43" s="1">
         <v>1.62</v>
       </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -2282,12 +2282,12 @@
       <c r="D44" s="1">
         <v>1.82</v>
       </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2300,12 +2300,12 @@
       <c r="D45" s="1">
         <v>1.71</v>
       </c>
-      <c r="F45">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2318,12 +2318,12 @@
       <c r="D46" s="1">
         <v>1.94</v>
       </c>
-      <c r="F46">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2336,12 +2336,12 @@
       <c r="D47" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -2354,12 +2354,12 @@
       <c r="D48" s="1">
         <v>1.81</v>
       </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -2372,12 +2372,12 @@
       <c r="D49" s="1">
         <v>1.91</v>
       </c>
-      <c r="F49">
-        <f t="shared" ref="F49:F75" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+D49, 2)</f>
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <f t="shared" ref="J49:J75" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+D49, 2)</f>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -2390,12 +2390,12 @@
       <c r="D50" s="1">
         <v>1.65</v>
       </c>
-      <c r="F50">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -2408,12 +2408,12 @@
       <c r="D51" s="1">
         <v>1.93</v>
       </c>
-      <c r="F51">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -2426,12 +2426,12 @@
       <c r="D52" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F52">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -2444,12 +2444,12 @@
       <c r="D53" s="1">
         <v>1.96</v>
       </c>
-      <c r="F53">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -2462,12 +2462,12 @@
       <c r="D54" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F54">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -2480,12 +2480,12 @@
       <c r="D55" s="1">
         <v>1.91</v>
       </c>
-      <c r="F55">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -2498,12 +2498,12 @@
       <c r="D56" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F56">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -2516,12 +2516,12 @@
       <c r="D57" s="1">
         <v>1.94</v>
       </c>
-      <c r="F57">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -2534,12 +2534,12 @@
       <c r="D58" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -2552,12 +2552,12 @@
       <c r="D59" s="1">
         <v>1.72</v>
       </c>
-      <c r="F59">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -2570,12 +2570,12 @@
       <c r="D60" s="1">
         <v>1.76</v>
       </c>
-      <c r="F60">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -2588,12 +2588,12 @@
       <c r="D61" s="1">
         <v>1.84</v>
       </c>
-      <c r="F61">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -2606,12 +2606,12 @@
       <c r="D62" s="1">
         <v>1.78</v>
       </c>
-      <c r="F62">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -2624,12 +2624,12 @@
       <c r="D63" s="1">
         <v>2.1</v>
       </c>
-      <c r="F63">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -2642,12 +2642,12 @@
       <c r="D64" s="1">
         <v>1.73</v>
       </c>
-      <c r="F64">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -2660,12 +2660,12 @@
       <c r="D65" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F65">
+      <c r="J65">
         <f t="shared" ca="1" si="2"/>
         <v>1.92</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -2678,12 +2678,12 @@
       <c r="D66" s="1">
         <v>1.67</v>
       </c>
-      <c r="F66">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -2696,12 +2696,12 @@
       <c r="D67" s="1">
         <v>1.64</v>
       </c>
-      <c r="F67">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -2714,12 +2714,12 @@
       <c r="D68" s="1">
         <v>1.89</v>
       </c>
-      <c r="F68">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -2732,12 +2732,12 @@
       <c r="D69" s="1">
         <v>1.89</v>
       </c>
-      <c r="F69">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -2750,12 +2750,12 @@
       <c r="D70" s="1">
         <v>1.62</v>
       </c>
-      <c r="F70">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -2768,12 +2768,12 @@
       <c r="D71" s="1">
         <v>1.82</v>
       </c>
-      <c r="F71">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -2786,12 +2786,12 @@
       <c r="D72" s="1">
         <v>1.71</v>
       </c>
-      <c r="F72">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -2804,12 +2804,12 @@
       <c r="D73" s="1">
         <v>1.94</v>
       </c>
-      <c r="F73">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -2822,12 +2822,12 @@
       <c r="D74" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F74">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -2840,9 +2840,9 @@
       <c r="D75" s="1">
         <v>1.81</v>
       </c>
-      <c r="F75">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.89</v>
+      <c r="J75">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0299999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2863,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3551,7 +3551,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:D37 A5:A10 A20:A37 B36 B27 B18 C11:C12 C17:C18 C20:C21 C26:C27 C29:C30 C35:C36" numberStoredAsText="1"/>
+    <ignoredError sqref="D2:D37 A5:A10 A20:A37 B36 B27 B18 C11:C12 C17:C18 C21 C26:C27 C29:C30 C35:C36" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
